--- a/docs/Early-Childhood-Pacing-Guide.xlsx
+++ b/docs/Early-Childhood-Pacing-Guide.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ginnykirkland/Dropbox/Voyager/Regional Marketing/South/Laura Woolf/AL LETRS/Landing Page/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottb/Projects/Voyager Sopris Learning/Microsites/Alabama LETRS/al-solutions/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B2227CC-36C7-A54F-91C5-729B7D221A3D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD971514-DE07-FD45-B26E-B8F0644DA084}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="9220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27400" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EC" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EC!$A$1:$K$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EC!$A$1:$J$34</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Unit 2 Session 6</t>
   </si>
   <si>
-    <t>Unit 3 Session 7</t>
-  </si>
-  <si>
     <t>Unit 3 Session 8</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
   </si>
   <si>
     <t>LETRS EC Kick Off</t>
-  </si>
-  <si>
-    <t>EC Post Units 1-2</t>
   </si>
   <si>
     <t>EC Post Units 3-4</t>
@@ -643,742 +637,747 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="B1:L38"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="3"/>
-    <col min="3" max="7" width="18.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" style="1" customWidth="1"/>
-    <col min="9" max="11" width="18.33203125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="3"/>
+    <col min="2" max="6" width="18.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="18.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
-      <c r="C1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="2:11" ht="18.75" customHeight="1">
+    <row r="1" spans="1:10">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="26" t="s">
+      <c r="F4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="4"/>
+      <c r="J4" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="B5" s="4">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="2:11" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="B6" s="4">
-        <v>4</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="2:11" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="B7" s="4">
+      <c r="I6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="2:11" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="B8" s="4">
+      <c r="E7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="7" t="s">
+      <c r="B8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="E8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="2:11" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="B9" s="4">
+    </row>
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
+      <c r="B9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="2:11" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="B10" s="4">
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="23" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="26"/>
+      <c r="D10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="B11" s="4">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="7"/>
+      <c r="J10" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="G11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="B12" s="4">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="J11" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="2:11" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="B13" s="4">
+    </row>
+    <row r="13" spans="1:10" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="2:11" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="B14" s="4">
+      <c r="B13" s="4"/>
+      <c r="C13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="2:11" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="B15" s="4">
+      <c r="B14" s="4"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="B15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="2:11" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="B16" s="4">
+    </row>
+    <row r="16" spans="1:10" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7" t="s">
+      <c r="B16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="2:12" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="B17" s="4">
+    </row>
+    <row r="17" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="B18" s="4">
+      <c r="B17" s="4"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="21"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="G18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="B19" s="4">
+      <c r="J18" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="19"/>
-    </row>
-    <row r="20" spans="2:12" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="B20" s="4">
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="17" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="19"/>
+    </row>
+    <row r="21" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="19"/>
+    </row>
+    <row r="22" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A26" s="4">
         <v>24</v>
       </c>
-      <c r="H20" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20" s="19"/>
-    </row>
-    <row r="21" spans="2:12" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="B21" s="4">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" s="19"/>
-    </row>
-    <row r="22" spans="2:12" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="B22" s="4">
-        <v>20</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="19"/>
-    </row>
-    <row r="23" spans="2:12" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="B23" s="4">
-        <v>21</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="B26" s="16"/>
+      <c r="C26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="B24" s="4">
-        <v>22</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="B25" s="4">
-        <v>23</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="B26" s="4">
-        <v>24</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="G26" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="2:12" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="B27" s="4">
+    </row>
+    <row r="27" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A27" s="4">
         <v>25</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="4" t="s">
+      <c r="B27" s="16"/>
+      <c r="C27" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" s="4"/>
-    </row>
-    <row r="28" spans="2:12" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="B28" s="4">
+      <c r="E27" s="7"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A28" s="4">
         <v>26</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="22" t="s">
+      <c r="B28" s="16"/>
+      <c r="C28" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="4"/>
-    </row>
-    <row r="29" spans="2:12" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="B29" s="4">
+      <c r="E28" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A29" s="4">
         <v>27</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="4" t="s">
+      <c r="B29" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="E29" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-    </row>
-    <row r="30" spans="2:12" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="B30" s="4">
+    </row>
+    <row r="30" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A30" s="4">
         <v>28</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="4" t="s">
+      <c r="B30" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="E30" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="F30" s="18"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-    </row>
-    <row r="31" spans="2:12" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="B31" s="4">
+    </row>
+    <row r="31" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A31" s="4">
         <v>29</v>
       </c>
-      <c r="C31" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="7" t="s">
+      <c r="B31" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="B32" s="4">
+      <c r="F31" s="14"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A32" s="4">
         <v>30</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="B32" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="7" t="s">
+      <c r="C32" s="22"/>
+      <c r="D32" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="F32" s="14"/>
+      <c r="G32" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="B33" s="4">
-        <v>31</v>
-      </c>
-      <c r="C33" s="23"/>
+      <c r="J32" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="13"/>
-    </row>
-    <row r="34" spans="2:11">
-      <c r="C34" s="12" t="s">
+      <c r="J33" s="13"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="B34" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" ht="14.5" customHeight="1"/>
-    <row r="38" spans="2:11">
-      <c r="E38" s="8" t="s">
+      <c r="F34" s="12"/>
+    </row>
+    <row r="35" spans="1:10" ht="14.5" customHeight="1"/>
+    <row r="38" spans="1:10">
+      <c r="D38" s="8" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter daily notes for this month in this column under this heading" sqref="C2:K2" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Calendar days are in this column under this heading. Use heading filters to find specific entries" sqref="B2" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter daily notes for this month in this column under this heading" sqref="B2:J2" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Calendar days are in this column under this heading. Use heading filters to find specific entries" sqref="A2" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.34" right="1.0652777777777778" top="0.89826388888888886" bottom="0.37" header="0.3" footer="0.3"/>
   <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
